--- a/Turma Home Jan2018/1° Sabado/Aula 4/Procv 3 com validação e nome de tabela.xlsx
+++ b/Turma Home Jan2018/1° Sabado/Aula 4/Procv 3 com validação e nome de tabela.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio.rosa\Desktop\TeachX.git\trunk\Turma 462 - Outubro 2017\Aula 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80643735\Desktop\TeachX.git\trunk\Turma Home Jan2018\1° Sabado\Aula 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDE6350-9EAF-458A-B0B4-903B951BBB52}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -240,7 +241,7 @@
     <t>&lt; Validação de dados</t>
   </si>
   <si>
-    <t>nome2</t>
+    <t>nome3</t>
   </si>
 </sst>
 </file>
@@ -618,7 +619,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -671,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
         <v>70</v>
